--- a/TCC/APS/CasosUso/1.1_Doc_CasoUso_Login_AlterarOcupanteVaga.xlsx
+++ b/TCC/APS/CasosUso/1.1_Doc_CasoUso_Login_AlterarOcupanteVaga.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlocal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlocal\Documents\GitHub\Etec\TCC\APS\CasosUso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Nome do caso de uso</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Ator Principal</t>
   </si>
   <si>
@@ -162,13 +159,19 @@
   </si>
   <si>
     <t>Exibir a situação da vaga do Ator Pincipal</t>
+  </si>
+  <si>
+    <t>USUÁRIO</t>
+  </si>
+  <si>
+    <t>Efetuar Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +192,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,26 +363,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C54"/>
+  <dimension ref="B1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,387 +681,402 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="8" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5" t="s">
+    </row>
+    <row r="54" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="C55" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B52:B54"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
